--- a/docs/PTA2_DDC_100/PTA2_DDC_100_19.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_19.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731785088.0463817</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731785092.0238829</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785088.0463817.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785092.0238829.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>273.29</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>271.62</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.670000000000016</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731785093.2602618</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731785095.9487512</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785093.2602618.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785095.9487512.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>270.21</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>270.4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731785096.581625</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731785098.0847056</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785096.581625.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785098.0847056.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>270.99</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>270.09</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.9000000000000341</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731785101.6661851</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731785104.8865967</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785101.6661851.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785104.8865967.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>273.29</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>271.62</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.670000000000016</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731785105.7323356</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731785107.748932</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785105.7323356.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785107.748932.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>270.21</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>270.4</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731785108.2173805</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731785109.2306707</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785108.2173805.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785109.2306707.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>270.99</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>270.09</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.9000000000000341</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731785113.0105455</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731785117.354869</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785113.0105455.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785117.354869.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>273.61</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>271.84</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1.770000000000039</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731785118.387588</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731785118.807257</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785118.387588.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785118.807257.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>270.32</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>271.26</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.9399999999999977</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731785119.3014698</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731785121.1758459</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785119.3014698.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785121.1758459.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>270.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>270.77</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.5699999999999932</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731785121.7623827</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731785123.6428914</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785121.7623827.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785123.6428914.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>271.51</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>270.36</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.149999999999977</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731785125.4537308</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731785126.3921394</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785125.4537308.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785126.3921394.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.62</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>126.62</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.7799999999999999</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731785128.470832</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731785129.9743254</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785128.470832.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785129.9743254.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>126.23</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>126.3</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731785132.729687</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731785132.9459114</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785132.729687.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785132.9459114.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>125.32</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>126</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6800000000000068</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731785134.9267619</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731785135.1102972</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785134.9267619.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785135.1102972.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>125.49</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>125.88</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1267,95 +1367,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731785135.720159</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731785135.720159.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731785135.720159.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>126.2</v>
       </c>
-      <c r="J17" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>126.88</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.6799999999999926</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731785138.961793</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731785140.4838963</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785138.961793.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785140.4838963.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6269.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6242.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>27</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731785140.7233095</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731785144.1699107</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785140.7233095.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785144.1699107.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6236</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6209</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-27</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731785147.3863597</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731785148.7026043</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785147.3863597.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785148.7026043.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6181</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6195</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>14</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731785148.8492317</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731785149.0544467</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785148.8492317.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785149.0544467.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6205</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6187.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>17.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731785149.2512968</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731785150.0377495</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785149.2512968.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785150.0377495.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6206.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6198</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>8.5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1571,95 +1707,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731785151.6513705</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731785151.6513705.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731785151.6513705.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6182</v>
       </c>
-      <c r="J23" t="n">
-        <v>6182</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6187.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731785153.0207782</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731785154.508313</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785153.0207782.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785154.508313.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>492.3</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>491.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.9000000000000341</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731785155.7522442</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731785158.707922</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785155.7522442.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785158.707922.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>489.55</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>488.75</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.8000000000000114</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731785162.9867413</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731785164.5542321</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785162.9867413.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785164.5542321.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>488.9</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>487.7</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731785167.1376967</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731785175.7880821</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731785167.1376967.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731785175.7880821.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>219.52</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>213.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-5.719999999999999</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-2.61</v>
       </c>
     </row>
@@ -1823,95 +1989,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731785176.4536903</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731785176.4536903.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731785176.4536903.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>214.4</v>
       </c>
-      <c r="J28" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>215.28</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.8799999999999955</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731785179.396853</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731785181.151858</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785179.396853.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785181.151858.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1017.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1015.8</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731785183.0444095</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731785184.556145</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785183.0444095.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785184.556145.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1011.8</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1014.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>3</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731785184.9060488</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731785186.7078507</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785184.9060488.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785186.7078507.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1017.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1014.2</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731785188.1463418</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731785188.3439</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785188.1463418.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785188.3439.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1013</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1015.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731785189.0677962</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731785189.5245261</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785189.0677962.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785189.5245261.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1013.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1015.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2.399999999999977</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731785189.6919925</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731785193.3127978</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785189.6919925.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785193.3127978.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1017.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731785197.5050976</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731785199.3971345</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785197.5050976.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785199.3971345.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>12.182</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>12.179</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731785201.674571</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731785201.8578112</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785201.674571.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785201.8578112.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>12.171</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>12.182</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731785202.2956889</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731785205.8911846</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785202.2956889.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785205.8911846.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>12.165</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>12.152</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.0129999999999999</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731785207.2740052</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731785209.2277231</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785207.2740052.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785209.2277231.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>126.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>126.46</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731785209.5125608</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731785213.0438802</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785209.5125608.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785213.0438802.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>125.88</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>125.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731785213.7695181</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731785216.8850985</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785213.7695181.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785216.8850985.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>125.26</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>124.66</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.6000000000000085</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -2491,95 +2735,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731785216.984315</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731785216.984315.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731785216.984315.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>125.02</v>
       </c>
-      <c r="J41" t="n">
-        <v>125.02</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>126.7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-1.680000000000007</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731785221.7507017</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731785222.6183708</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785221.7507017.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785222.6183708.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>162.52</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>161.5</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.02000000000001</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731785223.252339</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731785227.4306974</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785223.252339.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785227.4306974.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>160.76</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>160.38</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.3799999999999955</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731785227.7042277</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731785231.0843375</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785227.7042277.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785231.0843375.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>160</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>159.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.5999999999999943</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731785234.1958582</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731785234.310507</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785234.1958582.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785234.310507.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>49.45</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>49.645</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1950000000000003</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731785235.1413133</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731785235.5045242</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785235.1413133.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785235.5045242.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>49.8</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>49.6</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1999999999999957</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2795,51 +3075,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731785237.7025354</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731785242.6469412</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785237.7025354.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785242.6469412.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>49.31</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>49.1</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -2847,51 +3133,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731785243.1577606</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731785244.6158657</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785243.1577606.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785244.6158657.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>49</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>48.92</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2899,95 +3191,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731785247.1078916</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731785247.1078916.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731785247.1078916.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>48.695</v>
       </c>
-      <c r="J49" t="n">
-        <v>48.695</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>48.65</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.04500000000000171</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731785248.638675</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731785249.170852</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785248.638675.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785249.170852.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1381.6</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1375</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731785250.0428922</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731785254.3392558</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785250.0428922.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785254.3392558.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1370.2</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1363</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-7.200000000000045</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731785254.7696288</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731785255.6183398</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785254.7696288.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785255.6183398.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1364</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1362.2</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3099,95 +3415,107 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731785255.713412</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731785255.713412.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731785255.713412.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1357.8</v>
       </c>
-      <c r="J53" t="n">
-        <v>1357.8</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1351.2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-6.599999999999909</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731785262.5515532</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731785263.7434542</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785262.5515532.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785263.7434542.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>58.07</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>57.9</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3195,51 +3523,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731785266.5892668</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731785267.245247</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785266.5892668.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785267.245247.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>57.75</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>57.79</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3247,51 +3581,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731785271.276997</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731785271.9681606</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785271.276997.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785271.9681606.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>57.6</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>57.74</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3299,51 +3639,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731785272.830966</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731785274.5569694</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785272.830966.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785274.5569694.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>57.86</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>57.73</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3351,95 +3697,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731785275.1365917</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731785275.1365917.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731785275.1365917.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>57.59</v>
       </c>
-      <c r="J58" t="n">
-        <v>57.59</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>57.64</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731785276.701085</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731785277.9639556</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785276.701085.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785277.9639556.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>98.65000000000001</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>98.13</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.5200000000000102</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -3447,51 +3805,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731785279.5929039</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731785281.084006</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785279.5929039.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785281.084006.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>97.81</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>97.8</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3499,51 +3863,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731785285.7019966</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731785286.1072402</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785285.7019966.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785286.1072402.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>97.53</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>97.81</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3551,95 +3921,107 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731785286.2509482</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731785286.2509482.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731785286.2509482.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>97.93000000000001</v>
       </c>
-      <c r="J62" t="n">
-        <v>97.93000000000001</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>98.84</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.9099999999999966</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731785291.9668252</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731785302.0544407</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731785291.9668252.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731785302.0544407.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>54.51</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>53.88</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.6299999999999955</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-1.16</v>
       </c>
     </row>
@@ -3647,51 +4029,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731785302.8995042</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731785304.5572085</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785302.8995042.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785304.5572085.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>151.98</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>151.36</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.6199999999999761</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -3699,51 +4087,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731785305.391981</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731785310.8205283</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785305.391981.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785310.8205283.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>150.64</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>149.98</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.6599999999999966</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -3751,95 +4145,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731785312.1046388</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731785312.1046388.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731785312.1046388.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>150.48</v>
       </c>
-      <c r="J66" t="n">
-        <v>150.48</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>150.52</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.04000000000002046</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731785325.5176058</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731785330.7499416</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785325.5176058.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785330.7499416.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>19.646</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>19.491</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1550000000000011</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.79</v>
       </c>
     </row>
@@ -3847,51 +4253,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731785331.8060563</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731785332.5156627</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785331.8060563.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785332.5156627.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>19.53</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>19.432</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.09800000000000253</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3899,51 +4311,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731785334.1454513</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731785337.3597403</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785334.1454513.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785337.3597403.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>19.344</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>19.3</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.04400000000000048</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3951,51 +4369,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731785341.2257903</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731785344.103672</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785341.2257903.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785344.103672.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>667.95</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>666.2</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-1.75</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -4003,51 +4427,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731785344.172977</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731785346.2051835</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785344.172977.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785346.2051835.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>668.15</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>665.55</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -4055,51 +4485,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731785346.849569</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731785348.1516645</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785346.849569.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785348.1516645.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>664</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>666.85</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>2.850000000000023</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -4107,51 +4543,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731785349.5578651</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731785350.030589</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785349.5578651.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785350.030589.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>667.8</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>667.65</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4159,51 +4601,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731785352.8988893</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731785357.196368</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785352.8988893.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785357.196368.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>147.37</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>146.09</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-1.280000000000001</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.8699999999999999</v>
       </c>
     </row>
@@ -4211,51 +4659,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731785357.3683248</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731785357.9546077</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785357.3683248.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785357.9546077.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>146.25</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>145.71</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -4263,44 +4717,50 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731785360.572705</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731785360.572705.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731785360.572705.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>145.27</v>
       </c>
-      <c r="J76" t="n">
-        <v>145.27</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>143.16</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-2.110000000000014</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-1.45</v>
       </c>
     </row>
   </sheetData>
@@ -4383,19 +4843,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>45.5</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6.666666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -4427,19 +4887,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.140000000000001</v>
+        <v>1.460000000000008</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4280000000000001</v>
+        <v>0.2920000000000016</v>
       </c>
       <c r="E5" t="n">
-        <v>1.69</v>
+        <v>1.15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -4449,19 +4909,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1049999999999969</v>
+        <v>0.05999999999999517</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02099999999999937</v>
+        <v>0.01199999999999903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -4471,19 +4931,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.480000000000004</v>
+        <v>0.5300000000000011</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09600000000000079</v>
+        <v>0.1060000000000002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.82</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -4493,19 +4953,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.199999999999818</v>
+        <v>-5.400000000000091</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2999999999999545</v>
+        <v>-1.350000000000023</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07999999999999996</v>
+        <v>-0.41</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9">
@@ -4515,19 +4975,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7900000000000063</v>
+        <v>-0.1199999999999903</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1975000000000016</v>
+        <v>-0.02999999999999758</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.1199999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="10">
@@ -4537,19 +4997,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3400000000000034</v>
+        <v>-2.02000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08500000000000085</v>
+        <v>-0.5050000000000026</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.27</v>
+        <v>-1.61</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="11">
@@ -4603,19 +5063,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04000000000002046</v>
+        <v>-0.08000000000004093</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01333333333334016</v>
+        <v>-0.02666666666668031</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02999999999999997</v>
+        <v>-0.05999999999999997</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="14">
@@ -4691,19 +5151,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7400000000000091</v>
+        <v>-2.850000000000023</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2466666666666697</v>
+        <v>-0.9500000000000076</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.95</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.17</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="18">
@@ -4735,19 +5195,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5.719999999999999</v>
+        <v>-6.599999999999994</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.859999999999999</v>
+        <v>-3.299999999999997</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.61</v>
+        <v>-3.02</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.31</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="20">
